--- a/CumulativeTestsByTypeByCounty/2022-03-07.xlsx
+++ b/CumulativeTestsByTypeByCounty/2022-03-07.xlsx
@@ -1074,16 +1074,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>84773</v>
+        <v>84900</v>
       </c>
       <c r="C2" s="4">
-        <v>2163</v>
+        <v>2253</v>
       </c>
       <c r="D2" s="4">
-        <v>47140</v>
+        <v>47210</v>
       </c>
       <c r="E2" s="4">
-        <v>134076</v>
+        <v>134363</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1091,16 +1091,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>6879</v>
+        <v>6884</v>
       </c>
       <c r="C3" s="4">
         <v>351</v>
       </c>
       <c r="D3" s="4">
-        <v>7632</v>
+        <v>7636</v>
       </c>
       <c r="E3" s="4">
-        <v>14862</v>
+        <v>14871</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1108,16 +1108,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>87547</v>
+        <v>87597</v>
       </c>
       <c r="C4" s="4">
-        <v>4776</v>
+        <v>4784</v>
       </c>
       <c r="D4" s="4">
-        <v>92543</v>
+        <v>93101</v>
       </c>
       <c r="E4" s="4">
-        <v>184866</v>
+        <v>185482</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1125,16 +1125,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>19616</v>
+        <v>19650</v>
       </c>
       <c r="C5" s="4">
         <v>3029</v>
       </c>
       <c r="D5" s="4">
-        <v>16728</v>
+        <v>16756</v>
       </c>
       <c r="E5" s="4">
-        <v>39373</v>
+        <v>39435</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1142,16 +1142,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>5225</v>
+        <v>5226</v>
       </c>
       <c r="C6" s="4">
         <v>912</v>
       </c>
       <c r="D6" s="4">
-        <v>2234</v>
+        <v>2264</v>
       </c>
       <c r="E6" s="4">
-        <v>8371</v>
+        <v>8402</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1159,16 +1159,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C7" s="4">
         <v>344</v>
       </c>
       <c r="D7" s="4">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="E7" s="4">
-        <v>3172</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1176,16 +1176,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>125091</v>
+        <v>125232</v>
       </c>
       <c r="C8" s="4">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="D8" s="4">
-        <v>20796</v>
+        <v>20819</v>
       </c>
       <c r="E8" s="4">
-        <v>147403</v>
+        <v>147569</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1193,16 +1193,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>34024</v>
+        <v>34045</v>
       </c>
       <c r="C9" s="4">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="D9" s="4">
-        <v>6707</v>
+        <v>6762</v>
       </c>
       <c r="E9" s="4">
-        <v>42681</v>
+        <v>42759</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1210,7 +1210,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2934</v>
+        <v>2935</v>
       </c>
       <c r="C10" s="4">
         <v>101</v>
@@ -1219,7 +1219,7 @@
         <v>2545</v>
       </c>
       <c r="E10" s="4">
-        <v>5580</v>
+        <v>5581</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1227,16 +1227,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>16666</v>
+        <v>16703</v>
       </c>
       <c r="C11" s="4">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="D11" s="4">
-        <v>11016</v>
+        <v>11050</v>
       </c>
       <c r="E11" s="4">
-        <v>28612</v>
+        <v>28687</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1244,16 +1244,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>111362</v>
+        <v>111463</v>
       </c>
       <c r="C12" s="4">
-        <v>2887</v>
+        <v>2898</v>
       </c>
       <c r="D12" s="4">
-        <v>51235</v>
+        <v>51307</v>
       </c>
       <c r="E12" s="4">
-        <v>165484</v>
+        <v>165668</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1261,16 +1261,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>2416</v>
+        <v>2418</v>
       </c>
       <c r="C13" s="4">
         <v>638</v>
       </c>
       <c r="D13" s="4">
-        <v>4774</v>
+        <v>4778</v>
       </c>
       <c r="E13" s="4">
-        <v>7828</v>
+        <v>7834</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1278,16 +1278,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>57356</v>
+        <v>57406</v>
       </c>
       <c r="C14" s="4">
         <v>8624</v>
       </c>
       <c r="D14" s="4">
-        <v>28081</v>
+        <v>28113</v>
       </c>
       <c r="E14" s="4">
-        <v>94061</v>
+        <v>94143</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1295,16 +1295,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>468733</v>
+        <v>470491</v>
       </c>
       <c r="C15" s="4">
-        <v>16330</v>
+        <v>16348</v>
       </c>
       <c r="D15" s="4">
-        <v>133663</v>
+        <v>134087</v>
       </c>
       <c r="E15" s="4">
-        <v>618726</v>
+        <v>620926</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1312,16 +1312,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>5065405</v>
+        <v>5088025</v>
       </c>
       <c r="C16" s="4">
-        <v>83014</v>
+        <v>83214</v>
       </c>
       <c r="D16" s="4">
-        <v>779674</v>
+        <v>782866</v>
       </c>
       <c r="E16" s="4">
-        <v>5928093</v>
+        <v>5954105</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1329,16 +1329,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>10353</v>
+        <v>10366</v>
       </c>
       <c r="C17" s="4">
         <v>607</v>
       </c>
       <c r="D17" s="4">
-        <v>6266</v>
+        <v>6278</v>
       </c>
       <c r="E17" s="4">
-        <v>17226</v>
+        <v>17251</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1363,16 +1363,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>13895</v>
+        <v>13908</v>
       </c>
       <c r="C19" s="4">
         <v>629</v>
       </c>
       <c r="D19" s="4">
-        <v>10575</v>
+        <v>10576</v>
       </c>
       <c r="E19" s="4">
-        <v>25099</v>
+        <v>25113</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1380,16 +1380,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>98646</v>
+        <v>98732</v>
       </c>
       <c r="C20" s="4">
-        <v>10749</v>
+        <v>10753</v>
       </c>
       <c r="D20" s="4">
-        <v>43576</v>
+        <v>43625</v>
       </c>
       <c r="E20" s="4">
-        <v>152971</v>
+        <v>153110</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1397,16 +1397,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>674010</v>
+        <v>674643</v>
       </c>
       <c r="C21" s="4">
-        <v>27466</v>
+        <v>27494</v>
       </c>
       <c r="D21" s="4">
-        <v>147037</v>
+        <v>147480</v>
       </c>
       <c r="E21" s="4">
-        <v>848513</v>
+        <v>849617</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1414,16 +1414,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>511363</v>
+        <v>511727</v>
       </c>
       <c r="C22" s="4">
-        <v>13960</v>
+        <v>14004</v>
       </c>
       <c r="D22" s="4">
-        <v>60105</v>
+        <v>60281</v>
       </c>
       <c r="E22" s="4">
-        <v>585428</v>
+        <v>586012</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1431,16 +1431,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>9642</v>
+        <v>9648</v>
       </c>
       <c r="C23" s="4">
         <v>180</v>
       </c>
       <c r="D23" s="4">
-        <v>3673</v>
+        <v>3678</v>
       </c>
       <c r="E23" s="4">
-        <v>13495</v>
+        <v>13506</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1448,7 +1448,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="C24" s="4">
         <v>142</v>
@@ -1457,7 +1457,7 @@
         <v>238</v>
       </c>
       <c r="E24" s="4">
-        <v>2020</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1465,16 +1465,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>26629</v>
+        <v>26635</v>
       </c>
       <c r="C25" s="4">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="D25" s="4">
-        <v>7296</v>
+        <v>7302</v>
       </c>
       <c r="E25" s="4">
-        <v>35850</v>
+        <v>35864</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1482,16 +1482,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>30232</v>
+        <v>30586</v>
       </c>
       <c r="C26" s="4">
         <v>1274</v>
       </c>
       <c r="D26" s="4">
-        <v>52008</v>
+        <v>52140</v>
       </c>
       <c r="E26" s="4">
-        <v>83514</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1499,16 +1499,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>29725</v>
+        <v>29765</v>
       </c>
       <c r="C27" s="4">
         <v>892</v>
       </c>
       <c r="D27" s="4">
-        <v>8103</v>
+        <v>8156</v>
       </c>
       <c r="E27" s="4">
-        <v>38720</v>
+        <v>38813</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1516,16 +1516,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>65472</v>
+        <v>65521</v>
       </c>
       <c r="C28" s="4">
-        <v>2756</v>
+        <v>2768</v>
       </c>
       <c r="D28" s="4">
-        <v>17135</v>
+        <v>17170</v>
       </c>
       <c r="E28" s="4">
-        <v>85363</v>
+        <v>85459</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1533,16 +1533,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>71281</v>
+        <v>71313</v>
       </c>
       <c r="C29" s="4">
-        <v>2383</v>
+        <v>2393</v>
       </c>
       <c r="D29" s="4">
-        <v>20931</v>
+        <v>20964</v>
       </c>
       <c r="E29" s="4">
-        <v>94595</v>
+        <v>94670</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1550,16 +1550,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>23253</v>
+        <v>23276</v>
       </c>
       <c r="C30" s="4">
-        <v>2591</v>
+        <v>2604</v>
       </c>
       <c r="D30" s="4">
-        <v>17915</v>
+        <v>17939</v>
       </c>
       <c r="E30" s="4">
-        <v>43759</v>
+        <v>43819</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>7786</v>
+        <v>7829</v>
       </c>
       <c r="C31" s="4">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D31" s="4">
-        <v>14017</v>
+        <v>14099</v>
       </c>
       <c r="E31" s="4">
-        <v>22162</v>
+        <v>22289</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1584,16 +1584,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>511249</v>
+        <v>511864</v>
       </c>
       <c r="C32" s="4">
-        <v>12320</v>
+        <v>12330</v>
       </c>
       <c r="D32" s="4">
-        <v>185468</v>
+        <v>186338</v>
       </c>
       <c r="E32" s="4">
-        <v>709037</v>
+        <v>710532</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1601,16 +1601,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>10906</v>
+        <v>10932</v>
       </c>
       <c r="C33" s="4">
         <v>590</v>
       </c>
       <c r="D33" s="4">
-        <v>4584</v>
+        <v>4588</v>
       </c>
       <c r="E33" s="4">
-        <v>16080</v>
+        <v>16110</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1618,16 +1618,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>3598</v>
+        <v>3602</v>
       </c>
       <c r="C34" s="4">
         <v>1150</v>
       </c>
       <c r="D34" s="4">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="E34" s="4">
-        <v>6608</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1635,16 +1635,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>22014</v>
+        <v>22044</v>
       </c>
       <c r="C35" s="4">
-        <v>3407</v>
+        <v>3410</v>
       </c>
       <c r="D35" s="4">
-        <v>16650</v>
+        <v>16671</v>
       </c>
       <c r="E35" s="4">
-        <v>42071</v>
+        <v>42125</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1669,16 +1669,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>16244</v>
+        <v>16257</v>
       </c>
       <c r="C37" s="4">
         <v>935</v>
       </c>
       <c r="D37" s="4">
-        <v>4305</v>
+        <v>4309</v>
       </c>
       <c r="E37" s="4">
-        <v>21484</v>
+        <v>21501</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1686,16 +1686,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>41323</v>
+        <v>41383</v>
       </c>
       <c r="C38" s="4">
-        <v>1382</v>
+        <v>1390</v>
       </c>
       <c r="D38" s="4">
-        <v>37249</v>
+        <v>37309</v>
       </c>
       <c r="E38" s="4">
-        <v>79954</v>
+        <v>80082</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1703,16 +1703,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>8536</v>
+        <v>8537</v>
       </c>
       <c r="C39" s="4">
         <v>479</v>
       </c>
       <c r="D39" s="4">
-        <v>6920</v>
+        <v>6937</v>
       </c>
       <c r="E39" s="4">
-        <v>15935</v>
+        <v>15953</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1720,16 +1720,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>7444</v>
+        <v>7449</v>
       </c>
       <c r="C40" s="4">
         <v>757</v>
       </c>
       <c r="D40" s="4">
-        <v>6955</v>
+        <v>6999</v>
       </c>
       <c r="E40" s="4">
-        <v>15156</v>
+        <v>15205</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1737,16 +1737,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="C41" s="4">
         <v>30</v>
       </c>
       <c r="D41" s="4">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E41" s="4">
-        <v>2644</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1760,10 +1760,10 @@
         <v>75</v>
       </c>
       <c r="D42" s="4">
-        <v>4063</v>
+        <v>4070</v>
       </c>
       <c r="E42" s="4">
-        <v>7259</v>
+        <v>7266</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1771,16 +1771,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>5047</v>
+        <v>5062</v>
       </c>
       <c r="C43" s="4">
         <v>190</v>
       </c>
       <c r="D43" s="4">
-        <v>5922</v>
+        <v>5930</v>
       </c>
       <c r="E43" s="4">
-        <v>11159</v>
+        <v>11182</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1788,16 +1788,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1855930</v>
+        <v>1858923</v>
       </c>
       <c r="C44" s="4">
-        <v>119741</v>
+        <v>119934</v>
       </c>
       <c r="D44" s="4">
-        <v>407683</v>
+        <v>409780</v>
       </c>
       <c r="E44" s="4">
-        <v>2383354</v>
+        <v>2388637</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1805,7 +1805,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="C45" s="4">
         <v>146</v>
@@ -1814,7 +1814,7 @@
         <v>3897</v>
       </c>
       <c r="E45" s="4">
-        <v>6299</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1822,16 +1822,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>21879</v>
+        <v>21901</v>
       </c>
       <c r="C46" s="4">
         <v>1264</v>
       </c>
       <c r="D46" s="4">
-        <v>12970</v>
+        <v>12998</v>
       </c>
       <c r="E46" s="4">
-        <v>36113</v>
+        <v>36163</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1839,16 +1839,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>222155</v>
+        <v>222468</v>
       </c>
       <c r="C47" s="4">
-        <v>14226</v>
+        <v>14285</v>
       </c>
       <c r="D47" s="4">
-        <v>67021</v>
+        <v>67237</v>
       </c>
       <c r="E47" s="4">
-        <v>303402</v>
+        <v>303990</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1856,16 +1856,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>13001</v>
+        <v>13026</v>
       </c>
       <c r="C48" s="4">
         <v>394</v>
       </c>
       <c r="D48" s="4">
-        <v>8001</v>
+        <v>8005</v>
       </c>
       <c r="E48" s="4">
-        <v>21396</v>
+        <v>21425</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1873,16 +1873,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>2642</v>
+        <v>2645</v>
       </c>
       <c r="C49" s="4">
         <v>40</v>
       </c>
       <c r="D49" s="4">
-        <v>5620</v>
+        <v>5624</v>
       </c>
       <c r="E49" s="4">
-        <v>8302</v>
+        <v>8309</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1890,16 +1890,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>35753</v>
+        <v>35775</v>
       </c>
       <c r="C50" s="4">
-        <v>2564</v>
+        <v>2572</v>
       </c>
       <c r="D50" s="4">
-        <v>15932</v>
+        <v>15950</v>
       </c>
       <c r="E50" s="4">
-        <v>54249</v>
+        <v>54297</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1907,16 +1907,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>150058</v>
+        <v>150533</v>
       </c>
       <c r="C51" s="4">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="D51" s="4">
-        <v>36277</v>
+        <v>36462</v>
       </c>
       <c r="E51" s="4">
-        <v>188855</v>
+        <v>189517</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1930,10 +1930,10 @@
         <v>78</v>
       </c>
       <c r="D52" s="4">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="E52" s="4">
-        <v>2704</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1941,16 +1941,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>5107</v>
+        <v>5109</v>
       </c>
       <c r="C53" s="4">
         <v>100</v>
       </c>
       <c r="D53" s="4">
-        <v>5230</v>
+        <v>5233</v>
       </c>
       <c r="E53" s="4">
-        <v>10437</v>
+        <v>10442</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1975,16 +1975,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>4235</v>
+        <v>4242</v>
       </c>
       <c r="C55" s="4">
         <v>82</v>
       </c>
       <c r="D55" s="4">
-        <v>4441</v>
+        <v>4452</v>
       </c>
       <c r="E55" s="4">
-        <v>8758</v>
+        <v>8776</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1992,16 +1992,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>3122</v>
+        <v>3124</v>
       </c>
       <c r="C56" s="4">
         <v>42</v>
       </c>
       <c r="D56" s="4">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E56" s="4">
-        <v>3639</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2009,16 +2009,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>4459</v>
+        <v>4461</v>
       </c>
       <c r="C57" s="4">
         <v>609</v>
       </c>
       <c r="D57" s="4">
-        <v>4353</v>
+        <v>4355</v>
       </c>
       <c r="E57" s="4">
-        <v>9421</v>
+        <v>9425</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2026,16 +2026,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>4428228</v>
+        <v>4432965</v>
       </c>
       <c r="C58" s="4">
-        <v>177196</v>
+        <v>177511</v>
       </c>
       <c r="D58" s="4">
-        <v>777720</v>
+        <v>780040</v>
       </c>
       <c r="E58" s="4">
-        <v>5383144</v>
+        <v>5390516</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2043,16 +2043,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>12338</v>
+        <v>12345</v>
       </c>
       <c r="C59" s="4">
         <v>644</v>
       </c>
       <c r="D59" s="4">
-        <v>7301</v>
+        <v>7316</v>
       </c>
       <c r="E59" s="4">
-        <v>20283</v>
+        <v>20305</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2060,16 +2060,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>17922</v>
+        <v>17935</v>
       </c>
       <c r="C60" s="4">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="D60" s="4">
-        <v>9058</v>
+        <v>9061</v>
       </c>
       <c r="E60" s="4">
-        <v>27666</v>
+        <v>27688</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2077,16 +2077,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>9379</v>
+        <v>9380</v>
       </c>
       <c r="C61" s="4">
         <v>1306</v>
       </c>
       <c r="D61" s="4">
-        <v>8752</v>
+        <v>8756</v>
       </c>
       <c r="E61" s="4">
-        <v>19437</v>
+        <v>19442</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2094,16 +2094,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>3502</v>
+        <v>3511</v>
       </c>
       <c r="C62" s="4">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D62" s="4">
-        <v>3924</v>
+        <v>3933</v>
       </c>
       <c r="E62" s="4">
-        <v>7689</v>
+        <v>7709</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2111,16 +2111,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>1086134</v>
+        <v>1087278</v>
       </c>
       <c r="C63" s="4">
-        <v>85356</v>
+        <v>85432</v>
       </c>
       <c r="D63" s="4">
-        <v>321504</v>
+        <v>322547</v>
       </c>
       <c r="E63" s="4">
-        <v>1492994</v>
+        <v>1495257</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2128,16 +2128,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C64" s="4">
         <v>22</v>
       </c>
       <c r="D64" s="4">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="E64" s="4">
-        <v>2274</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2145,16 +2145,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>36917</v>
+        <v>36983</v>
       </c>
       <c r="C65" s="4">
         <v>137</v>
       </c>
       <c r="D65" s="4">
-        <v>47031</v>
+        <v>47513</v>
       </c>
       <c r="E65" s="4">
-        <v>84085</v>
+        <v>84633</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2162,16 +2162,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>2360</v>
+        <v>2362</v>
       </c>
       <c r="C66" s="4">
         <v>507</v>
       </c>
       <c r="D66" s="4">
-        <v>2571</v>
+        <v>2575</v>
       </c>
       <c r="E66" s="4">
-        <v>5438</v>
+        <v>5444</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2179,16 +2179,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>27281</v>
+        <v>27298</v>
       </c>
       <c r="C67" s="4">
         <v>3539</v>
       </c>
       <c r="D67" s="4">
-        <v>14057</v>
+        <v>14062</v>
       </c>
       <c r="E67" s="4">
-        <v>44877</v>
+        <v>44899</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2196,16 +2196,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>8500</v>
+        <v>8514</v>
       </c>
       <c r="C68" s="4">
         <v>575</v>
       </c>
       <c r="D68" s="4">
-        <v>10321</v>
+        <v>10331</v>
       </c>
       <c r="E68" s="4">
-        <v>19396</v>
+        <v>19420</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2213,16 +2213,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>108501</v>
+        <v>108600</v>
       </c>
       <c r="C69" s="4">
-        <v>6712</v>
+        <v>6724</v>
       </c>
       <c r="D69" s="4">
-        <v>83529</v>
+        <v>83560</v>
       </c>
       <c r="E69" s="4">
-        <v>198742</v>
+        <v>198884</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2230,16 +2230,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="C70" s="4">
         <v>46</v>
       </c>
       <c r="D70" s="4">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="E70" s="4">
-        <v>2706</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2247,16 +2247,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1499037</v>
+        <v>1501948</v>
       </c>
       <c r="C71" s="4">
-        <v>24117</v>
+        <v>24132</v>
       </c>
       <c r="D71" s="4">
-        <v>686215</v>
+        <v>687565</v>
       </c>
       <c r="E71" s="4">
-        <v>2209369</v>
+        <v>2213645</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2264,16 +2264,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>291503</v>
+        <v>291756</v>
       </c>
       <c r="C72" s="4">
-        <v>10162</v>
+        <v>10177</v>
       </c>
       <c r="D72" s="4">
-        <v>69225</v>
+        <v>69369</v>
       </c>
       <c r="E72" s="4">
-        <v>370890</v>
+        <v>371302</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2281,16 +2281,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>37788</v>
+        <v>37852</v>
       </c>
       <c r="C73" s="4">
-        <v>2293</v>
+        <v>2303</v>
       </c>
       <c r="D73" s="4">
-        <v>17455</v>
+        <v>17461</v>
       </c>
       <c r="E73" s="4">
-        <v>57536</v>
+        <v>57616</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2298,16 +2298,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>20026</v>
+        <v>20038</v>
       </c>
       <c r="C74" s="4">
         <v>503</v>
       </c>
       <c r="D74" s="4">
-        <v>12003</v>
+        <v>12042</v>
       </c>
       <c r="E74" s="4">
-        <v>32532</v>
+        <v>32583</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2315,16 +2315,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>48736</v>
+        <v>48769</v>
       </c>
       <c r="C75" s="4">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D75" s="4">
-        <v>14087</v>
+        <v>14118</v>
       </c>
       <c r="E75" s="4">
-        <v>64045</v>
+        <v>64110</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2332,16 +2332,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>26391</v>
+        <v>26411</v>
       </c>
       <c r="C76" s="4">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="D76" s="4">
-        <v>9278</v>
+        <v>9296</v>
       </c>
       <c r="E76" s="4">
-        <v>36776</v>
+        <v>36820</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2355,10 +2355,10 @@
         <v>49</v>
       </c>
       <c r="D77" s="4">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="E77" s="4">
-        <v>2875</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2366,16 +2366,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>5602</v>
+        <v>5614</v>
       </c>
       <c r="C78" s="4">
         <v>176</v>
       </c>
       <c r="D78" s="4">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="E78" s="4">
-        <v>6823</v>
+        <v>6838</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2389,10 +2389,10 @@
         <v>166</v>
       </c>
       <c r="D79" s="4">
-        <v>2481</v>
+        <v>2500</v>
       </c>
       <c r="E79" s="4">
-        <v>3430</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2400,16 +2400,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>1392989</v>
+        <v>1394453</v>
       </c>
       <c r="C80" s="4">
-        <v>53449</v>
+        <v>53524</v>
       </c>
       <c r="D80" s="4">
-        <v>208179</v>
+        <v>209384</v>
       </c>
       <c r="E80" s="4">
-        <v>1654617</v>
+        <v>1657361</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2417,16 +2417,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>8151</v>
+        <v>8160</v>
       </c>
       <c r="C81" s="4">
         <v>634</v>
       </c>
       <c r="D81" s="4">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E81" s="4">
-        <v>11004</v>
+        <v>11014</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2434,16 +2434,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>26590</v>
+        <v>26630</v>
       </c>
       <c r="C82" s="4">
-        <v>880</v>
+        <v>895</v>
       </c>
       <c r="D82" s="4">
-        <v>23894</v>
+        <v>24056</v>
       </c>
       <c r="E82" s="4">
-        <v>51364</v>
+        <v>51581</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2451,16 +2451,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>38399</v>
+        <v>38412</v>
       </c>
       <c r="C83" s="4">
         <v>588</v>
       </c>
       <c r="D83" s="4">
-        <v>10379</v>
+        <v>10381</v>
       </c>
       <c r="E83" s="4">
-        <v>49366</v>
+        <v>49381</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2468,16 +2468,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>5791</v>
+        <v>5793</v>
       </c>
       <c r="C84" s="4">
         <v>315</v>
       </c>
       <c r="D84" s="4">
-        <v>3087</v>
+        <v>3091</v>
       </c>
       <c r="E84" s="4">
-        <v>9193</v>
+        <v>9199</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2485,16 +2485,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>718261</v>
+        <v>719232</v>
       </c>
       <c r="C85" s="4">
-        <v>28634</v>
+        <v>28667</v>
       </c>
       <c r="D85" s="4">
-        <v>126186</v>
+        <v>126857</v>
       </c>
       <c r="E85" s="4">
-        <v>873081</v>
+        <v>874756</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2502,16 +2502,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>4849</v>
+        <v>4853</v>
       </c>
       <c r="C86" s="4">
         <v>77</v>
       </c>
       <c r="D86" s="4">
-        <v>2207</v>
+        <v>2212</v>
       </c>
       <c r="E86" s="4">
-        <v>7133</v>
+        <v>7142</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2519,16 +2519,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>24148</v>
+        <v>24168</v>
       </c>
       <c r="C87" s="4">
-        <v>1182</v>
+        <v>1189</v>
       </c>
       <c r="D87" s="4">
-        <v>14215</v>
+        <v>14284</v>
       </c>
       <c r="E87" s="4">
-        <v>39545</v>
+        <v>39641</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2553,16 +2553,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>5468</v>
+        <v>5474</v>
       </c>
       <c r="C89" s="4">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D89" s="4">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="E89" s="4">
-        <v>10041</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2570,16 +2570,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>18858</v>
+        <v>18882</v>
       </c>
       <c r="C90" s="4">
         <v>552</v>
       </c>
       <c r="D90" s="4">
-        <v>15517</v>
+        <v>15536</v>
       </c>
       <c r="E90" s="4">
-        <v>34927</v>
+        <v>34970</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2587,16 +2587,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>14782</v>
+        <v>14788</v>
       </c>
       <c r="C91" s="4">
         <v>1385</v>
       </c>
       <c r="D91" s="4">
-        <v>14214</v>
+        <v>14224</v>
       </c>
       <c r="E91" s="4">
-        <v>30381</v>
+        <v>30397</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2604,16 +2604,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>194309</v>
+        <v>194452</v>
       </c>
       <c r="C92" s="4">
-        <v>6686</v>
+        <v>6710</v>
       </c>
       <c r="D92" s="4">
-        <v>62628</v>
+        <v>62773</v>
       </c>
       <c r="E92" s="4">
-        <v>263623</v>
+        <v>263935</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2621,16 +2621,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>91756</v>
+        <v>91890</v>
       </c>
       <c r="C93" s="4">
-        <v>12568</v>
+        <v>12580</v>
       </c>
       <c r="D93" s="4">
-        <v>52969</v>
+        <v>53054</v>
       </c>
       <c r="E93" s="4">
-        <v>157293</v>
+        <v>157524</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2638,16 +2638,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>62568</v>
+        <v>62613</v>
       </c>
       <c r="C94" s="4">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="D94" s="4">
-        <v>16629</v>
+        <v>16666</v>
       </c>
       <c r="E94" s="4">
-        <v>80759</v>
+        <v>80843</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2655,16 +2655,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>173192</v>
+        <v>173439</v>
       </c>
       <c r="C95" s="4">
-        <v>6836</v>
+        <v>6854</v>
       </c>
       <c r="D95" s="4">
-        <v>58414</v>
+        <v>58556</v>
       </c>
       <c r="E95" s="4">
-        <v>238442</v>
+        <v>238849</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2672,16 +2672,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>35427</v>
+        <v>35455</v>
       </c>
       <c r="C96" s="4">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D96" s="4">
-        <v>10019</v>
+        <v>10168</v>
       </c>
       <c r="E96" s="4">
-        <v>46005</v>
+        <v>46186</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2689,7 +2689,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="C97" s="4">
         <v>82</v>
@@ -2698,7 +2698,7 @@
         <v>3781</v>
       </c>
       <c r="E97" s="4">
-        <v>6693</v>
+        <v>6694</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2706,16 +2706,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>12584</v>
+        <v>12603</v>
       </c>
       <c r="C98" s="4">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="D98" s="4">
-        <v>5739</v>
+        <v>5741</v>
       </c>
       <c r="E98" s="4">
-        <v>18806</v>
+        <v>18835</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2723,16 +2723,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="C99" s="4">
         <v>874</v>
       </c>
       <c r="D99" s="4">
-        <v>5015</v>
+        <v>5017</v>
       </c>
       <c r="E99" s="4">
-        <v>8281</v>
+        <v>8284</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2740,16 +2740,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="C100" s="4">
         <v>332</v>
       </c>
       <c r="D100" s="4">
-        <v>4168</v>
+        <v>4231</v>
       </c>
       <c r="E100" s="4">
-        <v>7336</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2757,16 +2757,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>48898</v>
+        <v>48939</v>
       </c>
       <c r="C101" s="4">
-        <v>4763</v>
+        <v>4771</v>
       </c>
       <c r="D101" s="4">
-        <v>32389</v>
+        <v>32425</v>
       </c>
       <c r="E101" s="4">
-        <v>86050</v>
+        <v>86135</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2774,16 +2774,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>8662193</v>
+        <v>8674819</v>
       </c>
       <c r="C102" s="4">
-        <v>288381</v>
+        <v>288746</v>
       </c>
       <c r="D102" s="4">
-        <v>1288621</v>
+        <v>1292698</v>
       </c>
       <c r="E102" s="4">
-        <v>10239195</v>
+        <v>10256263</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2791,16 +2791,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>92071</v>
+        <v>92221</v>
       </c>
       <c r="C103" s="4">
-        <v>9584</v>
+        <v>9603</v>
       </c>
       <c r="D103" s="4">
-        <v>39700</v>
+        <v>39773</v>
       </c>
       <c r="E103" s="4">
-        <v>141355</v>
+        <v>141597</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2814,10 +2814,10 @@
         <v>81</v>
       </c>
       <c r="D104" s="4">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E104" s="4">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2825,16 +2825,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>2086</v>
+        <v>2089</v>
       </c>
       <c r="C105" s="4">
         <v>48</v>
       </c>
       <c r="D105" s="4">
-        <v>4394</v>
+        <v>4399</v>
       </c>
       <c r="E105" s="4">
-        <v>6528</v>
+        <v>6536</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2842,16 +2842,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>522490</v>
+        <v>522803</v>
       </c>
       <c r="C106" s="4">
-        <v>18786</v>
+        <v>18845</v>
       </c>
       <c r="D106" s="4">
-        <v>71955</v>
+        <v>72097</v>
       </c>
       <c r="E106" s="4">
-        <v>613231</v>
+        <v>613745</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2859,7 +2859,7 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="C107" s="4">
         <v>550</v>
@@ -2868,7 +2868,7 @@
         <v>612</v>
       </c>
       <c r="E107" s="4">
-        <v>2689</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2876,16 +2876,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>56859</v>
+        <v>57129</v>
       </c>
       <c r="C108" s="4">
-        <v>3437</v>
+        <v>3447</v>
       </c>
       <c r="D108" s="4">
-        <v>33138</v>
+        <v>33210</v>
       </c>
       <c r="E108" s="4">
-        <v>93434</v>
+        <v>93786</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2893,16 +2893,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>1000285</v>
+        <v>1003627</v>
       </c>
       <c r="C109" s="4">
-        <v>23918</v>
+        <v>23958</v>
       </c>
       <c r="D109" s="4">
-        <v>469782</v>
+        <v>470733</v>
       </c>
       <c r="E109" s="4">
-        <v>1493985</v>
+        <v>1498318</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2910,16 +2910,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>45930</v>
+        <v>45958</v>
       </c>
       <c r="C110" s="4">
         <v>1371</v>
       </c>
       <c r="D110" s="4">
-        <v>22706</v>
+        <v>22757</v>
       </c>
       <c r="E110" s="4">
-        <v>70007</v>
+        <v>70086</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2927,16 +2927,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>21600</v>
+        <v>21618</v>
       </c>
       <c r="C111" s="4">
         <v>288</v>
       </c>
       <c r="D111" s="4">
-        <v>9639</v>
+        <v>9684</v>
       </c>
       <c r="E111" s="4">
-        <v>31527</v>
+        <v>31590</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2944,16 +2944,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>62441</v>
+        <v>62533</v>
       </c>
       <c r="C112" s="4">
-        <v>3417</v>
+        <v>3423</v>
       </c>
       <c r="D112" s="4">
-        <v>50514</v>
+        <v>50542</v>
       </c>
       <c r="E112" s="4">
-        <v>116372</v>
+        <v>116498</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2961,16 +2961,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>31054</v>
+        <v>31121</v>
       </c>
       <c r="C113" s="4">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="D113" s="4">
-        <v>17197</v>
+        <v>17222</v>
       </c>
       <c r="E113" s="4">
-        <v>50448</v>
+        <v>50542</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2978,16 +2978,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>22411</v>
+        <v>22434</v>
       </c>
       <c r="C114" s="4">
-        <v>740</v>
+        <v>783</v>
       </c>
       <c r="D114" s="4">
-        <v>13786</v>
+        <v>13819</v>
       </c>
       <c r="E114" s="4">
-        <v>36937</v>
+        <v>37036</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2995,16 +2995,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>24567</v>
+        <v>24573</v>
       </c>
       <c r="C115" s="4">
         <v>988</v>
       </c>
       <c r="D115" s="4">
-        <v>26851</v>
+        <v>27430</v>
       </c>
       <c r="E115" s="4">
-        <v>52406</v>
+        <v>52991</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3012,16 +3012,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>3700</v>
+        <v>3705</v>
       </c>
       <c r="C116" s="4">
         <v>55</v>
       </c>
       <c r="D116" s="4">
-        <v>1913</v>
+        <v>1920</v>
       </c>
       <c r="E116" s="4">
-        <v>5668</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3029,16 +3029,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>148886</v>
+        <v>149122</v>
       </c>
       <c r="C117" s="4">
-        <v>5433</v>
+        <v>5435</v>
       </c>
       <c r="D117" s="4">
-        <v>55641</v>
+        <v>55788</v>
       </c>
       <c r="E117" s="4">
-        <v>209960</v>
+        <v>210345</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3046,16 +3046,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>15029</v>
+        <v>15037</v>
       </c>
       <c r="C118" s="4">
         <v>1902</v>
       </c>
       <c r="D118" s="4">
-        <v>11680</v>
+        <v>11689</v>
       </c>
       <c r="E118" s="4">
-        <v>28611</v>
+        <v>28628</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3080,16 +3080,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>5738</v>
+        <v>5744</v>
       </c>
       <c r="C120" s="4">
         <v>307</v>
       </c>
       <c r="D120" s="4">
-        <v>2243</v>
+        <v>2254</v>
       </c>
       <c r="E120" s="4">
-        <v>8288</v>
+        <v>8305</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3097,16 +3097,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>12351</v>
+        <v>12364</v>
       </c>
       <c r="C121" s="4">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D121" s="4">
-        <v>6580</v>
+        <v>6582</v>
       </c>
       <c r="E121" s="4">
-        <v>19584</v>
+        <v>19603</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3114,16 +3114,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>31618</v>
+        <v>31654</v>
       </c>
       <c r="C122" s="4">
         <v>3218</v>
       </c>
       <c r="D122" s="4">
-        <v>20249</v>
+        <v>20268</v>
       </c>
       <c r="E122" s="4">
-        <v>55085</v>
+        <v>55140</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3131,16 +3131,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="C123" s="4">
         <v>61</v>
       </c>
       <c r="D123" s="4">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E123" s="4">
-        <v>2526</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3148,16 +3148,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>262657</v>
+        <v>262894</v>
       </c>
       <c r="C124" s="4">
-        <v>17200</v>
+        <v>17221</v>
       </c>
       <c r="D124" s="4">
-        <v>121753</v>
+        <v>122069</v>
       </c>
       <c r="E124" s="4">
-        <v>401610</v>
+        <v>402184</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3165,16 +3165,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>15420</v>
+        <v>15425</v>
       </c>
       <c r="C125" s="4">
         <v>783</v>
       </c>
       <c r="D125" s="4">
-        <v>18161</v>
+        <v>18173</v>
       </c>
       <c r="E125" s="4">
-        <v>34364</v>
+        <v>34381</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3182,16 +3182,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>94345</v>
+        <v>94404</v>
       </c>
       <c r="C126" s="4">
         <v>11513</v>
       </c>
       <c r="D126" s="4">
-        <v>41328</v>
+        <v>41366</v>
       </c>
       <c r="E126" s="4">
-        <v>147186</v>
+        <v>147283</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3199,16 +3199,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>221843</v>
+        <v>222190</v>
       </c>
       <c r="C127" s="4">
-        <v>9673</v>
+        <v>9680</v>
       </c>
       <c r="D127" s="4">
-        <v>59894</v>
+        <v>60017</v>
       </c>
       <c r="E127" s="4">
-        <v>291410</v>
+        <v>291887</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3216,16 +3216,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>12707</v>
+        <v>12734</v>
       </c>
       <c r="C128" s="4">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D128" s="4">
-        <v>11392</v>
+        <v>11448</v>
       </c>
       <c r="E128" s="4">
-        <v>24349</v>
+        <v>24433</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3233,16 +3233,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>23878</v>
+        <v>23883</v>
       </c>
       <c r="C129" s="4">
         <v>606</v>
       </c>
       <c r="D129" s="4">
-        <v>16155</v>
+        <v>16271</v>
       </c>
       <c r="E129" s="4">
-        <v>40639</v>
+        <v>40760</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3250,16 +3250,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>200032</v>
+        <v>200398</v>
       </c>
       <c r="C130" s="4">
-        <v>7712</v>
+        <v>7722</v>
       </c>
       <c r="D130" s="4">
-        <v>63335</v>
+        <v>63509</v>
       </c>
       <c r="E130" s="4">
-        <v>271079</v>
+        <v>271629</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3267,16 +3267,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>49471</v>
+        <v>49561</v>
       </c>
       <c r="C131" s="4">
-        <v>3271</v>
+        <v>3283</v>
       </c>
       <c r="D131" s="4">
-        <v>26307</v>
+        <v>26331</v>
       </c>
       <c r="E131" s="4">
-        <v>79049</v>
+        <v>79175</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3284,7 +3284,7 @@
         <v>135</v>
       </c>
       <c r="B132" s="4">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C132" s="4">
         <v>56</v>
@@ -3293,7 +3293,7 @@
         <v>123</v>
       </c>
       <c r="E132" s="4">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3307,10 +3307,10 @@
         <v>0</v>
       </c>
       <c r="D133" s="4">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="E133" s="4">
-        <v>2331</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3318,16 +3318,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>50469</v>
+        <v>50511</v>
       </c>
       <c r="C134" s="4">
-        <v>2406</v>
+        <v>2413</v>
       </c>
       <c r="D134" s="4">
-        <v>58052</v>
+        <v>58425</v>
       </c>
       <c r="E134" s="4">
-        <v>110927</v>
+        <v>111349</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3335,16 +3335,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>2536</v>
+        <v>2543</v>
       </c>
       <c r="C135" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D135" s="4">
-        <v>1803</v>
+        <v>1807</v>
       </c>
       <c r="E135" s="4">
-        <v>4417</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3369,16 +3369,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>3723</v>
+        <v>3725</v>
       </c>
       <c r="C137" s="4">
         <v>66</v>
       </c>
       <c r="D137" s="4">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E137" s="4">
-        <v>4694</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3386,16 +3386,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>45565</v>
+        <v>45593</v>
       </c>
       <c r="C138" s="4">
         <v>5583</v>
       </c>
       <c r="D138" s="4">
-        <v>21178</v>
+        <v>21216</v>
       </c>
       <c r="E138" s="4">
-        <v>72326</v>
+        <v>72392</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3403,16 +3403,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C139" s="4">
         <v>68</v>
       </c>
       <c r="D139" s="4">
-        <v>7681</v>
+        <v>7690</v>
       </c>
       <c r="E139" s="4">
-        <v>9087</v>
+        <v>9097</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3420,16 +3420,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>14503</v>
+        <v>14511</v>
       </c>
       <c r="C140" s="4">
         <v>331</v>
       </c>
       <c r="D140" s="4">
-        <v>7844</v>
+        <v>7907</v>
       </c>
       <c r="E140" s="4">
-        <v>22678</v>
+        <v>22749</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3437,16 +3437,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>33964</v>
+        <v>33993</v>
       </c>
       <c r="C141" s="4">
-        <v>3115</v>
+        <v>3118</v>
       </c>
       <c r="D141" s="4">
-        <v>25619</v>
+        <v>25667</v>
       </c>
       <c r="E141" s="4">
-        <v>62698</v>
+        <v>62778</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3454,16 +3454,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>10318</v>
+        <v>10336</v>
       </c>
       <c r="C142" s="4">
         <v>194</v>
       </c>
       <c r="D142" s="4">
-        <v>12874</v>
+        <v>12878</v>
       </c>
       <c r="E142" s="4">
-        <v>23386</v>
+        <v>23408</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3471,16 +3471,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>33198</v>
+        <v>33237</v>
       </c>
       <c r="C143" s="4">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="D143" s="4">
-        <v>9324</v>
+        <v>9345</v>
       </c>
       <c r="E143" s="4">
-        <v>43343</v>
+        <v>43409</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3488,16 +3488,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>20892</v>
+        <v>20910</v>
       </c>
       <c r="C144" s="4">
-        <v>1450</v>
+        <v>1461</v>
       </c>
       <c r="D144" s="4">
-        <v>19031</v>
+        <v>19041</v>
       </c>
       <c r="E144" s="4">
-        <v>41373</v>
+        <v>41412</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3505,16 +3505,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>14677</v>
+        <v>14690</v>
       </c>
       <c r="C145" s="4">
         <v>526</v>
       </c>
       <c r="D145" s="4">
-        <v>8303</v>
+        <v>8346</v>
       </c>
       <c r="E145" s="4">
-        <v>23506</v>
+        <v>23562</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3522,16 +3522,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>18965</v>
+        <v>19004</v>
       </c>
       <c r="C146" s="4">
-        <v>897</v>
+        <v>914</v>
       </c>
       <c r="D146" s="4">
-        <v>8705</v>
+        <v>8739</v>
       </c>
       <c r="E146" s="4">
-        <v>28567</v>
+        <v>28657</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3539,16 +3539,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>103057</v>
+        <v>103167</v>
       </c>
       <c r="C147" s="4">
-        <v>4864</v>
+        <v>4869</v>
       </c>
       <c r="D147" s="4">
-        <v>31967</v>
+        <v>32100</v>
       </c>
       <c r="E147" s="4">
-        <v>139888</v>
+        <v>140136</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3556,16 +3556,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>42768</v>
+        <v>42813</v>
       </c>
       <c r="C148" s="4">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D148" s="4">
-        <v>43259</v>
+        <v>43725</v>
       </c>
       <c r="E148" s="4">
-        <v>86844</v>
+        <v>87357</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3573,7 +3573,7 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C149" s="4">
         <v>330</v>
@@ -3582,7 +3582,7 @@
         <v>1270</v>
       </c>
       <c r="E149" s="4">
-        <v>2282</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3590,16 +3590,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>10357</v>
+        <v>10369</v>
       </c>
       <c r="C150" s="4">
         <v>1384</v>
       </c>
       <c r="D150" s="4">
-        <v>9204</v>
+        <v>9212</v>
       </c>
       <c r="E150" s="4">
-        <v>20945</v>
+        <v>20965</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3607,16 +3607,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>20565</v>
+        <v>20574</v>
       </c>
       <c r="C151" s="4">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="D151" s="4">
-        <v>6462</v>
+        <v>6469</v>
       </c>
       <c r="E151" s="4">
-        <v>27767</v>
+        <v>27789</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3624,16 +3624,16 @@
         <v>155</v>
       </c>
       <c r="B152" s="4">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C152" s="4">
         <v>5</v>
       </c>
       <c r="D152" s="4">
-        <v>13051</v>
+        <v>13139</v>
       </c>
       <c r="E152" s="4">
-        <v>13489</v>
+        <v>13581</v>
       </c>
     </row>
     <row r="153" ht="14" customHeight="1">
@@ -3641,16 +3641,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>387680</v>
+        <v>388140</v>
       </c>
       <c r="C153" s="4">
-        <v>13225</v>
+        <v>13329</v>
       </c>
       <c r="D153" s="4">
-        <v>212238</v>
+        <v>212951</v>
       </c>
       <c r="E153" s="4">
-        <v>613143</v>
+        <v>614420</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3658,16 +3658,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>4905</v>
+        <v>4910</v>
       </c>
       <c r="C154" s="4">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D154" s="4">
-        <v>4457</v>
+        <v>4462</v>
       </c>
       <c r="E154" s="4">
-        <v>9560</v>
+        <v>9572</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3675,16 +3675,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>21013</v>
+        <v>21024</v>
       </c>
       <c r="C155" s="4">
         <v>428</v>
       </c>
       <c r="D155" s="4">
-        <v>7513</v>
+        <v>7529</v>
       </c>
       <c r="E155" s="4">
-        <v>28954</v>
+        <v>28981</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3692,16 +3692,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>4572</v>
+        <v>4574</v>
       </c>
       <c r="C156" s="4">
         <v>887</v>
       </c>
       <c r="D156" s="4">
-        <v>4369</v>
+        <v>4376</v>
       </c>
       <c r="E156" s="4">
-        <v>9828</v>
+        <v>9837</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3709,16 +3709,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="C157" s="4">
         <v>289</v>
       </c>
       <c r="D157" s="4">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="E157" s="4">
-        <v>3906</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3726,16 +3726,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>2740</v>
+        <v>2749</v>
       </c>
       <c r="C158" s="4">
         <v>128</v>
       </c>
       <c r="D158" s="4">
-        <v>2434</v>
+        <v>2449</v>
       </c>
       <c r="E158" s="4">
-        <v>5302</v>
+        <v>5326</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3743,16 +3743,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>53731</v>
+        <v>53983</v>
       </c>
       <c r="C159" s="4">
         <v>2037</v>
       </c>
       <c r="D159" s="4">
-        <v>8923</v>
+        <v>8928</v>
       </c>
       <c r="E159" s="4">
-        <v>64691</v>
+        <v>64948</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3760,16 +3760,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>109624</v>
+        <v>109722</v>
       </c>
       <c r="C160" s="4">
         <v>546</v>
       </c>
       <c r="D160" s="4">
-        <v>32247</v>
+        <v>32287</v>
       </c>
       <c r="E160" s="4">
-        <v>142417</v>
+        <v>142555</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3777,16 +3777,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>4051</v>
+        <v>4060</v>
       </c>
       <c r="C161" s="4">
         <v>97</v>
       </c>
       <c r="D161" s="4">
-        <v>5005</v>
+        <v>5012</v>
       </c>
       <c r="E161" s="4">
-        <v>9153</v>
+        <v>9169</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3794,16 +3794,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>462216</v>
+        <v>462580</v>
       </c>
       <c r="C162" s="4">
-        <v>14106</v>
+        <v>14168</v>
       </c>
       <c r="D162" s="4">
-        <v>179299</v>
+        <v>179573</v>
       </c>
       <c r="E162" s="4">
-        <v>655621</v>
+        <v>656321</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3811,7 +3811,7 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C163" s="4">
         <v>65</v>
@@ -3820,7 +3820,7 @@
         <v>181</v>
       </c>
       <c r="E163" s="4">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3828,16 +3828,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>57487</v>
+        <v>57633</v>
       </c>
       <c r="C164" s="4">
-        <v>1860</v>
+        <v>1864</v>
       </c>
       <c r="D164" s="4">
-        <v>18144</v>
+        <v>18166</v>
       </c>
       <c r="E164" s="4">
-        <v>77491</v>
+        <v>77663</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3845,16 +3845,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="C165" s="4">
         <v>29</v>
       </c>
       <c r="D165" s="4">
-        <v>2914</v>
+        <v>2919</v>
       </c>
       <c r="E165" s="4">
-        <v>5507</v>
+        <v>5513</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3862,16 +3862,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>91347</v>
+        <v>91478</v>
       </c>
       <c r="C166" s="4">
-        <v>12673</v>
+        <v>12697</v>
       </c>
       <c r="D166" s="4">
-        <v>98772</v>
+        <v>98993</v>
       </c>
       <c r="E166" s="4">
-        <v>202792</v>
+        <v>203168</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3879,16 +3879,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>28406</v>
+        <v>28424</v>
       </c>
       <c r="C167" s="4">
         <v>1433</v>
       </c>
       <c r="D167" s="4">
-        <v>16186</v>
+        <v>16205</v>
       </c>
       <c r="E167" s="4">
-        <v>46025</v>
+        <v>46062</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3896,16 +3896,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>10123</v>
+        <v>10227</v>
       </c>
       <c r="C168" s="4">
         <v>147</v>
       </c>
       <c r="D168" s="4">
-        <v>3087</v>
+        <v>3094</v>
       </c>
       <c r="E168" s="4">
-        <v>13357</v>
+        <v>13468</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3913,16 +3913,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>9162</v>
+        <v>9163</v>
       </c>
       <c r="C169" s="4">
         <v>89</v>
       </c>
       <c r="D169" s="4">
-        <v>8418</v>
+        <v>8488</v>
       </c>
       <c r="E169" s="4">
-        <v>17669</v>
+        <v>17740</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3930,16 +3930,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>20951</v>
+        <v>20989</v>
       </c>
       <c r="C170" s="4">
-        <v>1380</v>
+        <v>1386</v>
       </c>
       <c r="D170" s="4">
-        <v>12336</v>
+        <v>12343</v>
       </c>
       <c r="E170" s="4">
-        <v>34667</v>
+        <v>34718</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3947,16 +3947,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>805847</v>
+        <v>806599</v>
       </c>
       <c r="C171" s="4">
-        <v>50893</v>
+        <v>50966</v>
       </c>
       <c r="D171" s="4">
-        <v>184095</v>
+        <v>184729</v>
       </c>
       <c r="E171" s="4">
-        <v>1040835</v>
+        <v>1042294</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3964,16 +3964,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>12524</v>
+        <v>12574</v>
       </c>
       <c r="C172" s="4">
         <v>1264</v>
       </c>
       <c r="D172" s="4">
-        <v>8594</v>
+        <v>8624</v>
       </c>
       <c r="E172" s="4">
-        <v>22382</v>
+        <v>22462</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3981,16 +3981,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>10696</v>
+        <v>10717</v>
       </c>
       <c r="C173" s="4">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D173" s="4">
-        <v>9531</v>
+        <v>9534</v>
       </c>
       <c r="E173" s="4">
-        <v>21067</v>
+        <v>21092</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -4015,16 +4015,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>72876</v>
+        <v>73012</v>
       </c>
       <c r="C175" s="4">
-        <v>4715</v>
+        <v>4721</v>
       </c>
       <c r="D175" s="4">
-        <v>25159</v>
+        <v>25234</v>
       </c>
       <c r="E175" s="4">
-        <v>102750</v>
+        <v>102967</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4032,16 +4032,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>45311</v>
+        <v>45350</v>
       </c>
       <c r="C176" s="4">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="D176" s="4">
-        <v>41158</v>
+        <v>41314</v>
       </c>
       <c r="E176" s="4">
-        <v>88642</v>
+        <v>88841</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4049,16 +4049,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>8021</v>
+        <v>8028</v>
       </c>
       <c r="C177" s="4">
         <v>974</v>
       </c>
       <c r="D177" s="4">
-        <v>6626</v>
+        <v>6627</v>
       </c>
       <c r="E177" s="4">
-        <v>15621</v>
+        <v>15629</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4066,16 +4066,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>10926</v>
+        <v>10935</v>
       </c>
       <c r="C178" s="4">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D178" s="4">
-        <v>9799</v>
+        <v>9809</v>
       </c>
       <c r="E178" s="4">
-        <v>20964</v>
+        <v>20984</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4083,16 +4083,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>416847</v>
+        <v>417367</v>
       </c>
       <c r="C179" s="4">
-        <v>54544</v>
+        <v>54570</v>
       </c>
       <c r="D179" s="4">
-        <v>211969</v>
+        <v>212991</v>
       </c>
       <c r="E179" s="4">
-        <v>683360</v>
+        <v>684928</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4117,16 +4117,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>1308</v>
+        <v>1312</v>
       </c>
       <c r="C181" s="4">
         <v>431</v>
       </c>
       <c r="D181" s="4">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="E181" s="4">
-        <v>3152</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4134,16 +4134,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>62017</v>
+        <v>62065</v>
       </c>
       <c r="C182" s="4">
-        <v>7442</v>
+        <v>7460</v>
       </c>
       <c r="D182" s="4">
-        <v>38169</v>
+        <v>38250</v>
       </c>
       <c r="E182" s="4">
-        <v>107628</v>
+        <v>107775</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4151,16 +4151,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>29033</v>
+        <v>29057</v>
       </c>
       <c r="C183" s="4">
         <v>1156</v>
       </c>
       <c r="D183" s="4">
-        <v>14642</v>
+        <v>14658</v>
       </c>
       <c r="E183" s="4">
-        <v>44831</v>
+        <v>44871</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4168,16 +4168,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>16689</v>
+        <v>16716</v>
       </c>
       <c r="C184" s="4">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D184" s="4">
-        <v>12335</v>
+        <v>12339</v>
       </c>
       <c r="E184" s="4">
-        <v>30397</v>
+        <v>30429</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4185,16 +4185,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>155304</v>
+        <v>155550</v>
       </c>
       <c r="C185" s="4">
-        <v>8344</v>
+        <v>8362</v>
       </c>
       <c r="D185" s="4">
-        <v>48042</v>
+        <v>48107</v>
       </c>
       <c r="E185" s="4">
-        <v>211690</v>
+        <v>212019</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4202,7 +4202,7 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>3785</v>
+        <v>3788</v>
       </c>
       <c r="C186" s="4">
         <v>387</v>
@@ -4211,7 +4211,7 @@
         <v>4643</v>
       </c>
       <c r="E186" s="4">
-        <v>8815</v>
+        <v>8818</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4219,16 +4219,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>15420</v>
+        <v>15424</v>
       </c>
       <c r="C187" s="4">
         <v>180</v>
       </c>
       <c r="D187" s="4">
-        <v>6245</v>
+        <v>6247</v>
       </c>
       <c r="E187" s="4">
-        <v>21845</v>
+        <v>21851</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4236,16 +4236,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>63473</v>
+        <v>63525</v>
       </c>
       <c r="C188" s="4">
-        <v>3072</v>
+        <v>3080</v>
       </c>
       <c r="D188" s="4">
-        <v>26210</v>
+        <v>26303</v>
       </c>
       <c r="E188" s="4">
-        <v>92755</v>
+        <v>92908</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4253,16 +4253,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>127990</v>
+        <v>128095</v>
       </c>
       <c r="C189" s="4">
-        <v>10423</v>
+        <v>10429</v>
       </c>
       <c r="D189" s="4">
-        <v>57197</v>
+        <v>57275</v>
       </c>
       <c r="E189" s="4">
-        <v>195610</v>
+        <v>195799</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4270,16 +4270,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>8187</v>
+        <v>8193</v>
       </c>
       <c r="C190" s="4">
         <v>65</v>
       </c>
       <c r="D190" s="4">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="E190" s="4">
-        <v>10698</v>
+        <v>10706</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4287,16 +4287,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>6590</v>
+        <v>6627</v>
       </c>
       <c r="C191" s="4">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D191" s="4">
-        <v>4129</v>
+        <v>4138</v>
       </c>
       <c r="E191" s="4">
-        <v>11223</v>
+        <v>11271</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4304,16 +4304,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>97169</v>
+        <v>97256</v>
       </c>
       <c r="C192" s="4">
-        <v>21289</v>
+        <v>21300</v>
       </c>
       <c r="D192" s="4">
-        <v>50050</v>
+        <v>50118</v>
       </c>
       <c r="E192" s="4">
-        <v>168508</v>
+        <v>168674</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4327,10 +4327,10 @@
         <v>49</v>
       </c>
       <c r="D193" s="4">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="E193" s="4">
-        <v>2905</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4338,16 +4338,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>3070</v>
+        <v>3072</v>
       </c>
       <c r="C194" s="4">
         <v>138</v>
       </c>
       <c r="D194" s="4">
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="E194" s="4">
-        <v>5150</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4355,16 +4355,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>9152</v>
+        <v>9155</v>
       </c>
       <c r="C195" s="4">
         <v>783</v>
       </c>
       <c r="D195" s="4">
-        <v>10910</v>
+        <v>10919</v>
       </c>
       <c r="E195" s="4">
-        <v>20845</v>
+        <v>20857</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4372,16 +4372,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>14543</v>
+        <v>14551</v>
       </c>
       <c r="C196" s="4">
         <v>564</v>
       </c>
       <c r="D196" s="4">
-        <v>101723</v>
+        <v>101782</v>
       </c>
       <c r="E196" s="4">
-        <v>116830</v>
+        <v>116897</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4389,16 +4389,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>6575</v>
+        <v>6576</v>
       </c>
       <c r="C197" s="4">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D197" s="4">
-        <v>10317</v>
+        <v>10319</v>
       </c>
       <c r="E197" s="4">
-        <v>17448</v>
+        <v>17453</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4423,16 +4423,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>21512</v>
+        <v>21541</v>
       </c>
       <c r="C199" s="4">
         <v>593</v>
       </c>
       <c r="D199" s="4">
-        <v>15485</v>
+        <v>15502</v>
       </c>
       <c r="E199" s="4">
-        <v>37590</v>
+        <v>37636</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4440,16 +4440,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>127106</v>
+        <v>127292</v>
       </c>
       <c r="C200" s="4">
-        <v>8639</v>
+        <v>8669</v>
       </c>
       <c r="D200" s="4">
-        <v>25779</v>
+        <v>25931</v>
       </c>
       <c r="E200" s="4">
-        <v>161524</v>
+        <v>161892</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4457,16 +4457,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>8633</v>
+        <v>8639</v>
       </c>
       <c r="C201" s="4">
         <v>255</v>
       </c>
       <c r="D201" s="4">
-        <v>10009</v>
+        <v>10019</v>
       </c>
       <c r="E201" s="4">
-        <v>18897</v>
+        <v>18913</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4474,16 +4474,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>38977</v>
+        <v>39024</v>
       </c>
       <c r="C202" s="4">
-        <v>2578</v>
+        <v>2581</v>
       </c>
       <c r="D202" s="4">
-        <v>12666</v>
+        <v>12707</v>
       </c>
       <c r="E202" s="4">
-        <v>54221</v>
+        <v>54312</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4491,16 +4491,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>12259</v>
+        <v>12271</v>
       </c>
       <c r="C203" s="4">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="D203" s="4">
-        <v>5498</v>
+        <v>5504</v>
       </c>
       <c r="E203" s="4">
-        <v>18542</v>
+        <v>18567</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4508,16 +4508,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>11725</v>
+        <v>11742</v>
       </c>
       <c r="C204" s="4">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D204" s="4">
-        <v>10989</v>
+        <v>10992</v>
       </c>
       <c r="E204" s="4">
-        <v>23018</v>
+        <v>23040</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4525,16 +4525,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>35782</v>
+        <v>35823</v>
       </c>
       <c r="C205" s="4">
-        <v>2549</v>
+        <v>2556</v>
       </c>
       <c r="D205" s="4">
-        <v>12135</v>
+        <v>12169</v>
       </c>
       <c r="E205" s="4">
-        <v>50466</v>
+        <v>50548</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4542,16 +4542,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>64459</v>
+        <v>64574</v>
       </c>
       <c r="C206" s="4">
-        <v>10260</v>
+        <v>10267</v>
       </c>
       <c r="D206" s="4">
-        <v>53235</v>
+        <v>53355</v>
       </c>
       <c r="E206" s="4">
-        <v>127954</v>
+        <v>128196</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4559,16 +4559,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>5902</v>
+        <v>5915</v>
       </c>
       <c r="C207" s="4">
         <v>146</v>
       </c>
       <c r="D207" s="4">
-        <v>4836</v>
+        <v>4837</v>
       </c>
       <c r="E207" s="4">
-        <v>10884</v>
+        <v>10898</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4582,10 +4582,10 @@
         <v>25</v>
       </c>
       <c r="D208" s="4">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="E208" s="4">
-        <v>2480</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4593,16 +4593,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>32294</v>
+        <v>32299</v>
       </c>
       <c r="C209" s="4">
         <v>361</v>
       </c>
       <c r="D209" s="4">
-        <v>6282</v>
+        <v>6297</v>
       </c>
       <c r="E209" s="4">
-        <v>38937</v>
+        <v>38957</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4610,16 +4610,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>1157</v>
+        <v>1163</v>
       </c>
       <c r="C210" s="4">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D210" s="4">
-        <v>1566</v>
+        <v>1571</v>
       </c>
       <c r="E210" s="4">
-        <v>2825</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4627,16 +4627,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>24649</v>
+        <v>24684</v>
       </c>
       <c r="C211" s="4">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="D211" s="4">
-        <v>12537</v>
+        <v>12543</v>
       </c>
       <c r="E211" s="4">
-        <v>38711</v>
+        <v>38754</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4644,16 +4644,16 @@
         <v>215</v>
       </c>
       <c r="B212" s="4">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C212" s="4">
         <v>186</v>
       </c>
       <c r="D212" s="4">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E212" s="4">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4661,16 +4661,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>330090</v>
+        <v>331786</v>
       </c>
       <c r="C213" s="4">
-        <v>16567</v>
+        <v>16634</v>
       </c>
       <c r="D213" s="4">
-        <v>122020</v>
+        <v>122445</v>
       </c>
       <c r="E213" s="4">
-        <v>468677</v>
+        <v>470865</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4678,16 +4678,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>10295</v>
+        <v>10343</v>
       </c>
       <c r="C214" s="4">
         <v>462</v>
       </c>
       <c r="D214" s="4">
-        <v>9214</v>
+        <v>9217</v>
       </c>
       <c r="E214" s="4">
-        <v>19971</v>
+        <v>20022</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4695,16 +4695,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>95294</v>
+        <v>95329</v>
       </c>
       <c r="C215" s="4">
         <v>961</v>
       </c>
       <c r="D215" s="4">
-        <v>41722</v>
+        <v>41740</v>
       </c>
       <c r="E215" s="4">
-        <v>137977</v>
+        <v>138030</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4712,16 +4712,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>6697</v>
+        <v>6703</v>
       </c>
       <c r="C216" s="4">
         <v>179</v>
       </c>
       <c r="D216" s="4">
-        <v>8174</v>
+        <v>8185</v>
       </c>
       <c r="E216" s="4">
-        <v>15050</v>
+        <v>15067</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4732,13 +4732,13 @@
         <v>746</v>
       </c>
       <c r="C217" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D217" s="4">
-        <v>1183</v>
+        <v>1188</v>
       </c>
       <c r="E217" s="4">
-        <v>1955</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4752,10 +4752,10 @@
         <v>10</v>
       </c>
       <c r="D218" s="4">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="E218" s="4">
-        <v>2455</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4763,7 +4763,7 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C219" s="4">
         <v>50</v>
@@ -4772,7 +4772,7 @@
         <v>1657</v>
       </c>
       <c r="E219" s="4">
-        <v>3405</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4780,16 +4780,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>8955</v>
+        <v>8961</v>
       </c>
       <c r="C220" s="4">
         <v>472</v>
       </c>
       <c r="D220" s="4">
-        <v>2665</v>
+        <v>2672</v>
       </c>
       <c r="E220" s="4">
-        <v>12092</v>
+        <v>12105</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4797,16 +4797,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>3202318</v>
+        <v>3205910</v>
       </c>
       <c r="C221" s="4">
-        <v>122695</v>
+        <v>122895</v>
       </c>
       <c r="D221" s="4">
-        <v>728316</v>
+        <v>730361</v>
       </c>
       <c r="E221" s="4">
-        <v>4053329</v>
+        <v>4059166</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4814,16 +4814,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>126379</v>
+        <v>127290</v>
       </c>
       <c r="C222" s="4">
-        <v>4914</v>
+        <v>4931</v>
       </c>
       <c r="D222" s="4">
-        <v>174870</v>
+        <v>176010</v>
       </c>
       <c r="E222" s="4">
-        <v>306163</v>
+        <v>308231</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4837,10 +4837,10 @@
         <v>12</v>
       </c>
       <c r="D223" s="4">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E223" s="4">
-        <v>859</v>
+        <v>862</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4848,16 +4848,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>6310</v>
+        <v>6311</v>
       </c>
       <c r="C224" s="4">
         <v>145</v>
       </c>
       <c r="D224" s="4">
-        <v>4973</v>
+        <v>4982</v>
       </c>
       <c r="E224" s="4">
-        <v>11428</v>
+        <v>11438</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4865,16 +4865,16 @@
         <v>228</v>
       </c>
       <c r="B225" s="4">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C225" s="4">
         <v>57</v>
       </c>
       <c r="D225" s="4">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="E225" s="4">
-        <v>1651</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4882,7 +4882,7 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>37964</v>
+        <v>38010</v>
       </c>
       <c r="C226" s="4">
         <v>1537</v>
@@ -4891,7 +4891,7 @@
         <v>12091</v>
       </c>
       <c r="E226" s="4">
-        <v>51592</v>
+        <v>51638</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4899,16 +4899,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>108977</v>
+        <v>109047</v>
       </c>
       <c r="C227" s="4">
-        <v>3425</v>
+        <v>3428</v>
       </c>
       <c r="D227" s="4">
-        <v>164344</v>
+        <v>164779</v>
       </c>
       <c r="E227" s="4">
-        <v>276746</v>
+        <v>277254</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4916,16 +4916,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>2167400</v>
+        <v>2169048</v>
       </c>
       <c r="C228" s="4">
-        <v>96902</v>
+        <v>97474</v>
       </c>
       <c r="D228" s="4">
-        <v>548723</v>
+        <v>550479</v>
       </c>
       <c r="E228" s="4">
-        <v>2813025</v>
+        <v>2817001</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4933,16 +4933,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>19810</v>
+        <v>19825</v>
       </c>
       <c r="C229" s="4">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D229" s="4">
-        <v>9788</v>
+        <v>9813</v>
       </c>
       <c r="E229" s="4">
-        <v>30235</v>
+        <v>30276</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4950,16 +4950,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>18017</v>
+        <v>18039</v>
       </c>
       <c r="C230" s="4">
         <v>1151</v>
       </c>
       <c r="D230" s="4">
-        <v>12851</v>
+        <v>12870</v>
       </c>
       <c r="E230" s="4">
-        <v>32019</v>
+        <v>32060</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4967,16 +4967,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>17933</v>
+        <v>17970</v>
       </c>
       <c r="C231" s="4">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="D231" s="4">
-        <v>11558</v>
+        <v>11583</v>
       </c>
       <c r="E231" s="4">
-        <v>32122</v>
+        <v>32186</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4984,16 +4984,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="C232" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D232" s="4">
-        <v>4836</v>
+        <v>4837</v>
       </c>
       <c r="E232" s="4">
-        <v>6306</v>
+        <v>6312</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -5001,16 +5001,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>52219</v>
+        <v>52251</v>
       </c>
       <c r="C233" s="4">
         <v>647</v>
       </c>
       <c r="D233" s="4">
-        <v>7451</v>
+        <v>7481</v>
       </c>
       <c r="E233" s="4">
-        <v>60317</v>
+        <v>60379</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5018,16 +5018,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>75522</v>
+        <v>75567</v>
       </c>
       <c r="C234" s="4">
         <v>1370</v>
       </c>
       <c r="D234" s="4">
-        <v>38553</v>
+        <v>38617</v>
       </c>
       <c r="E234" s="4">
-        <v>115445</v>
+        <v>115554</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5035,16 +5035,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>38308</v>
+        <v>38813</v>
       </c>
       <c r="C235" s="4">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="D235" s="4">
-        <v>25549</v>
+        <v>25673</v>
       </c>
       <c r="E235" s="4">
-        <v>66408</v>
+        <v>67038</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5052,16 +5052,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>84298</v>
+        <v>84419</v>
       </c>
       <c r="C236" s="4">
-        <v>6446</v>
+        <v>6477</v>
       </c>
       <c r="D236" s="4">
-        <v>37716</v>
+        <v>37752</v>
       </c>
       <c r="E236" s="4">
-        <v>128460</v>
+        <v>128648</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5069,16 +5069,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>186810</v>
+        <v>186898</v>
       </c>
       <c r="C237" s="4">
-        <v>3431</v>
+        <v>3432</v>
       </c>
       <c r="D237" s="4">
-        <v>53998</v>
+        <v>54039</v>
       </c>
       <c r="E237" s="4">
-        <v>244239</v>
+        <v>244369</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5086,16 +5086,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>71501</v>
+        <v>71605</v>
       </c>
       <c r="C238" s="4">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="D238" s="4">
-        <v>13946</v>
+        <v>14040</v>
       </c>
       <c r="E238" s="4">
-        <v>87909</v>
+        <v>88111</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5103,16 +5103,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>6639</v>
+        <v>6644</v>
       </c>
       <c r="C239" s="4">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D239" s="4">
         <v>3722</v>
       </c>
       <c r="E239" s="4">
-        <v>10605</v>
+        <v>10612</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5120,16 +5120,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>61773</v>
+        <v>61813</v>
       </c>
       <c r="C240" s="4">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="D240" s="4">
-        <v>33716</v>
+        <v>34043</v>
       </c>
       <c r="E240" s="4">
-        <v>97652</v>
+        <v>98020</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5137,16 +5137,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>642230</v>
+        <v>642582</v>
       </c>
       <c r="C241" s="4">
         <v>7280</v>
       </c>
       <c r="D241" s="4">
-        <v>178350</v>
+        <v>178817</v>
       </c>
       <c r="E241" s="4">
-        <v>827860</v>
+        <v>828679</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5154,16 +5154,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>54862</v>
+        <v>55012</v>
       </c>
       <c r="C242" s="4">
-        <v>2723</v>
+        <v>2727</v>
       </c>
       <c r="D242" s="4">
-        <v>19923</v>
+        <v>20088</v>
       </c>
       <c r="E242" s="4">
-        <v>77508</v>
+        <v>77827</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5177,10 +5177,10 @@
         <v>536</v>
       </c>
       <c r="D243" s="4">
-        <v>5682</v>
+        <v>5683</v>
       </c>
       <c r="E243" s="4">
-        <v>8965</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5188,16 +5188,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>174417</v>
+        <v>174472</v>
       </c>
       <c r="C244" s="4">
-        <v>12787</v>
+        <v>12866</v>
       </c>
       <c r="D244" s="4">
-        <v>93410</v>
+        <v>94466</v>
       </c>
       <c r="E244" s="4">
-        <v>280614</v>
+        <v>281804</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5205,16 +5205,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>20370</v>
+        <v>20380</v>
       </c>
       <c r="C245" s="4">
         <v>869</v>
       </c>
       <c r="D245" s="4">
-        <v>40834</v>
+        <v>41799</v>
       </c>
       <c r="E245" s="4">
-        <v>62073</v>
+        <v>63048</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5222,16 +5222,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>58423</v>
+        <v>58562</v>
       </c>
       <c r="C246" s="4">
         <v>262</v>
       </c>
       <c r="D246" s="4">
-        <v>11526</v>
+        <v>11566</v>
       </c>
       <c r="E246" s="4">
-        <v>70211</v>
+        <v>70390</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5239,16 +5239,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>956830</v>
+        <v>957751</v>
       </c>
       <c r="C247" s="4">
-        <v>43949</v>
+        <v>44319</v>
       </c>
       <c r="D247" s="4">
-        <v>256989</v>
+        <v>257629</v>
       </c>
       <c r="E247" s="4">
-        <v>1257768</v>
+        <v>1259699</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5256,16 +5256,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>60283</v>
+        <v>60378</v>
       </c>
       <c r="C248" s="4">
         <v>1731</v>
       </c>
       <c r="D248" s="4">
-        <v>30370</v>
+        <v>30472</v>
       </c>
       <c r="E248" s="4">
-        <v>92384</v>
+        <v>92581</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5273,7 +5273,7 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>2335</v>
+        <v>2338</v>
       </c>
       <c r="C249" s="4">
         <v>75</v>
@@ -5282,7 +5282,7 @@
         <v>930</v>
       </c>
       <c r="E249" s="4">
-        <v>3340</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5290,16 +5290,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>85429</v>
+        <v>85472</v>
       </c>
       <c r="C250" s="4">
         <v>4277</v>
       </c>
       <c r="D250" s="4">
-        <v>20861</v>
+        <v>20888</v>
       </c>
       <c r="E250" s="4">
-        <v>110567</v>
+        <v>110637</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5307,16 +5307,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>33518</v>
+        <v>33634</v>
       </c>
       <c r="C251" s="4">
-        <v>2544</v>
+        <v>2557</v>
       </c>
       <c r="D251" s="4">
-        <v>23307</v>
+        <v>23360</v>
       </c>
       <c r="E251" s="4">
-        <v>59369</v>
+        <v>59551</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5324,16 +5324,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>3213</v>
+        <v>3215</v>
       </c>
       <c r="C252" s="4">
         <v>175</v>
       </c>
       <c r="D252" s="4">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E252" s="4">
-        <v>6121</v>
+        <v>6124</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5341,16 +5341,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>12907</v>
+        <v>12922</v>
       </c>
       <c r="C253" s="4">
         <v>729</v>
       </c>
       <c r="D253" s="4">
-        <v>8223</v>
+        <v>8233</v>
       </c>
       <c r="E253" s="4">
-        <v>21859</v>
+        <v>21884</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5358,16 +5358,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>20741</v>
+        <v>20753</v>
       </c>
       <c r="C254" s="4">
         <v>176</v>
       </c>
       <c r="D254" s="4">
-        <v>20445</v>
+        <v>20479</v>
       </c>
       <c r="E254" s="4">
-        <v>41362</v>
+        <v>41408</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5375,16 +5375,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>17012</v>
+        <v>17032</v>
       </c>
       <c r="C255" s="4">
         <v>271</v>
       </c>
       <c r="D255" s="4">
-        <v>4009</v>
+        <v>4021</v>
       </c>
       <c r="E255" s="4">
-        <v>21292</v>
+        <v>21324</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5392,16 +5392,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>485066</v>
+        <v>490668</v>
       </c>
       <c r="C256" s="4">
         <v>14582</v>
       </c>
       <c r="D256" s="4">
-        <v>19669</v>
+        <v>19712</v>
       </c>
       <c r="E256" s="4">
-        <v>519317</v>
+        <v>524962</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5409,16 +5409,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>46299702</v>
+        <v>46383368</v>
       </c>
       <c r="C257" s="4">
-        <v>1853136</v>
+        <v>1857003</v>
       </c>
       <c r="D257" s="4">
-        <v>12543199</v>
+        <v>12583767</v>
       </c>
       <c r="E257" s="4">
-        <v>60696037</v>
+        <v>60824138</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
